--- a/data/spss_files_be.xlsx
+++ b/data/spss_files_be.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1C00AF-1BED-409E-A964-BB391F2A98F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABE1E44-ADC7-40E8-9332-716773EC5597}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I3" sqref="I3:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -627,8 +627,8 @@
         <v>13</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2:I16" si="0">A2&amp;"_"&amp;"wk"&amp;TEXT(D2,"00")&amp;"_"&amp;YEAR(G2)&amp;TEXT(G2,"MM")&amp;TEXT(G2,"DD")&amp;"_p"&amp;E2&amp;"_wv"&amp;TEXT(F2,"00")&amp;""</f>
-        <v>be_wk01_20200429_pA_wv01</v>
+        <f>A2&amp;"_"&amp;"sr"&amp;TEXT(D2,"00")&amp;"_"&amp;YEAR(G2)&amp;TEXT(G2,"MM")&amp;TEXT(G2,"DD")&amp;"_p"&amp;E2&amp;"_wv"&amp;TEXT(F2,"00")&amp;""</f>
+        <v>be_sr01_20200429_pA_wv01</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -659,9 +659,9 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" si="0"/>
-        <v>be_wk02_20200518_pA_wv02</v>
+      <c r="I3" s="2" t="str">
+        <f t="shared" ref="I3:I17" si="0">A3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
+        <v>be_sr02_20200518_pA_wv02</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -692,9 +692,9 @@
       <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" si="0"/>
-        <v>be_wk03_20200601_pA_wv03</v>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>be_sr03_20200601_pA_wv03</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -725,9 +725,9 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v>be_wk04_20200612_pA_wv04</v>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>be_sr04_20200612_pA_wv04</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -758,9 +758,9 @@
       <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" si="0"/>
-        <v>be_wk05_20200626_pA_wv05</v>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>be_sr05_20200626_pA_wv05</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -791,9 +791,9 @@
       <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" si="0"/>
-        <v>be_wk06_20200710_pA_wv06</v>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>be_sr06_20200710_pA_wv06</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -824,9 +824,9 @@
       <c r="H8" t="s">
         <v>19</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" si="0"/>
-        <v>be_wk07_20200724_pA_wv07</v>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>be_sr07_20200724_pA_wv07</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -857,9 +857,9 @@
       <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="I9" t="str">
-        <f t="shared" si="0"/>
-        <v>be_wk08_20200806_pA_wv08</v>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>be_sr08_20200806_pA_wv08</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -888,7 +888,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>be_wk09_20201120_pB_wv01</v>
+        <v>be_sr09_20201120_pB_wv01</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
@@ -912,7 +912,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>be_wk10_19000100_pB_wv02</v>
+        <v>be_sr10_19000100_pB_wv02</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -936,7 +936,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>be_wk11_19000100_pB_wv03</v>
+        <v>be_sr11_19000100_pB_wv03</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -966,7 +966,7 @@
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>be_wk12_20210111_pB_wv04</v>
+        <v>be_sr12_20210111_pB_wv04</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
@@ -996,7 +996,7 @@
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>be_wk13_20210120_pB_wv05</v>
+        <v>be_sr13_20210120_pB_wv05</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
@@ -1025,8 +1025,8 @@
         <v>30</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f>A15&amp;"_"&amp;"wk"&amp;TEXT(D15,"00")&amp;"_"&amp;YEAR(G15)&amp;TEXT(G15,"MM")&amp;TEXT(G15,"DD")&amp;"_p"&amp;E15&amp;"_wv"&amp;TEXT(F15,"00")&amp;""</f>
-        <v>be_wk14_20210127_pB_wv06</v>
+        <f t="shared" si="0"/>
+        <v>be_sr14_20210127_pB_wv06</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
@@ -1054,9 +1054,9 @@
       <c r="H16" t="s">
         <v>31</v>
       </c>
-      <c r="I16" t="str">
-        <f t="shared" si="0"/>
-        <v>be_wk15_20210222_pB_wv07</v>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>be_sr15_20210222_pB_wv07</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1085,8 +1085,8 @@
         <v>35</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f>A17&amp;"_"&amp;"wk"&amp;TEXT(D17,"00")&amp;"_"&amp;YEAR(G17)&amp;TEXT(G17,"MM")&amp;TEXT(G17,"DD")&amp;"_p"&amp;E17&amp;"_wv"&amp;TEXT(F17,"00")&amp;""</f>
-        <v>be_wk16_20210226_pB_wv08</v>
+        <f t="shared" si="0"/>
+        <v>be_sr16_20210226_pB_wv08</v>
       </c>
     </row>
   </sheetData>

--- a/data/spss_files_be.xlsx
+++ b/data/spss_files_be.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kw\Documents\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABE1E44-ADC7-40E8-9332-716773EC5597}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F546F531-EBF3-414F-9629-6E2DDAF21FA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>country</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>survey_round</t>
+  </si>
+  <si>
+    <t>20_060765_BE2_Wave9_Final_v1_150321_IntClientUse</t>
   </si>
 </sst>
 </file>
@@ -478,14 +481,14 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -493,7 +496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -501,7 +504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>3</v>
       </c>
@@ -509,7 +512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>4</v>
       </c>
@@ -517,7 +520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>5</v>
       </c>
@@ -525,7 +528,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>6</v>
       </c>
@@ -540,24 +543,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C042354-CAAB-48AD-AFC2-2197A2D12C9D}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3046875" customWidth="1"/>
-    <col min="4" max="4" width="12.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="4" max="4" width="12.234375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.4609375" customWidth="1"/>
-    <col min="8" max="8" width="58.4609375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.4609375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.46875" customWidth="1"/>
+    <col min="8" max="8" width="58.46875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.46875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -634,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -660,14 +663,14 @@
         <v>14</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I17" si="0">A3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
+        <f t="shared" ref="I3:I18" si="0">A3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
         <v>be_sr02_20200518_pA_wv02</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -700,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -733,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -766,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -799,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -832,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -865,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -891,7 +894,7 @@
         <v>be_sr09_20201120_pB_wv01</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -915,7 +918,7 @@
         <v>be_sr10_19000100_pB_wv02</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -939,7 +942,7 @@
         <v>be_sr11_19000100_pB_wv03</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -969,7 +972,7 @@
         <v>be_sr12_20210111_pB_wv04</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>be_sr13_20210120_pB_wv05</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1029,7 +1032,7 @@
         <v>be_sr14_20210127_pB_wv06</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>be_sr15_20210222_pB_wv07</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1087,6 +1090,36 @@
       <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>be_sr16_20210226_pB_wv08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18" s="3">
+        <v>44271</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>be_sr17_20210316_pB_wv09</v>
       </c>
     </row>
   </sheetData>

--- a/data/spss_files_be.xlsx
+++ b/data/spss_files_be.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kw\Documents\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F546F531-EBF3-414F-9629-6E2DDAF21FA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5B6C6A-7204-4B77-9D23-843B56377B23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>country</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>20_060765_BE2_Wave9_Final_v1_150321_IntClientUse</t>
+  </si>
+  <si>
+    <t>21-019042_BE_Wave10_Final_v1_260321_IntClientUse</t>
   </si>
 </sst>
 </file>
@@ -481,14 +484,14 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -496,7 +499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -504,7 +507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -512,7 +515,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -520,7 +523,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -528,7 +531,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -543,24 +546,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C042354-CAAB-48AD-AFC2-2197A2D12C9D}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.29296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.29296875" customWidth="1"/>
-    <col min="4" max="4" width="12.234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.46875" customWidth="1"/>
-    <col min="8" max="8" width="58.46875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.46875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -637,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -663,14 +666,14 @@
         <v>14</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I18" si="0">A3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
+        <f t="shared" ref="I3:I19" si="0">A3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
         <v>be_sr02_20200518_pA_wv02</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -703,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -736,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -769,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -802,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -835,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -868,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -894,7 +897,7 @@
         <v>be_sr09_20201120_pB_wv01</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -918,7 +921,7 @@
         <v>be_sr10_19000100_pB_wv02</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -942,7 +945,7 @@
         <v>be_sr11_19000100_pB_wv03</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -972,7 +975,7 @@
         <v>be_sr12_20210111_pB_wv04</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>be_sr13_20210120_pB_wv05</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>be_sr14_20210127_pB_wv06</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>be_sr15_20210222_pB_wv07</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>be_sr16_20210226_pB_wv08</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1120,6 +1123,36 @@
       <c r="I18" t="str">
         <f t="shared" si="0"/>
         <v>be_sr17_20210316_pB_wv09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3">
+        <v>44285</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>be_sr18_20210330_pB_wv10</v>
       </c>
     </row>
   </sheetData>
